--- a/user_review.xlsx
+++ b/user_review.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Highly recommended.</t>
+          <t>Worth the money</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brilliant</t>
+          <t>Classy product</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,115 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Terrific</t>
+          <t>Wonderful</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Great product</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Really Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Just wow!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Worth the money</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classy product</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Wonderful</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Great product</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Really Nice</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Just wow!</t>
         </is>
       </c>
     </row>
